--- a/TimeTables/MECH_Sem_6.xlsx
+++ b/TimeTables/MECH_Sem_6.xlsx
@@ -1,144 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prerna Tulsiani\COEP\Sem5\AI\Final_Project\AI-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10255709-DADF-4175-B73A-6FE3366BC47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>DAY / TIME</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>9:00 AM - 10:00 AM</t>
-  </si>
-  <si>
-    <t>10:00 AM - 11:00 AM</t>
-  </si>
-  <si>
-    <t>11:00 AM - 12:00 PM</t>
-  </si>
-  <si>
-    <t>12:00 PM - 1:00 PM</t>
-  </si>
-  <si>
-    <t>1:00 PM - 2:00 PM</t>
-  </si>
-  <si>
-    <t>2:00 PM - 3:00 PM</t>
-  </si>
-  <si>
-    <t>3:00 PM - 4:00 PM</t>
-  </si>
-  <si>
-    <t>4:00 PM - 5:00 PM</t>
-  </si>
-  <si>
-    <t>TIMETABLE GENERATOR</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="28"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="16"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="20"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.09997863704336681"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -257,104 +204,353 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="53">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -620,289 +816,401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col width="21.109375" customWidth="1" min="1" max="1"/>
+    <col width="31.5546875" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="37.109375" customWidth="1" min="5" max="5"/>
+    <col width="31.6640625" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
+    <row r="1">
+      <c r="C1" s="25" t="inlineStr">
+        <is>
+          <t>TIMETABLE GENERATOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="31.8" customHeight="1"/>
+    <row r="3" ht="15" customHeight="1" thickBot="1"/>
+    <row r="4" ht="23.4" customHeight="1">
+      <c r="A4" s="36" t="inlineStr">
+        <is>
+          <t>DAY / TIME</t>
+        </is>
+      </c>
+      <c r="B4" s="37" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C4" s="37" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D4" s="37" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="E4" s="37" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="F4" s="38" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A5" s="39" t="n"/>
+      <c r="B5" s="40" t="n"/>
+      <c r="C5" s="40" t="n"/>
+      <c r="D5" s="40" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="41" t="n"/>
+    </row>
+    <row r="6" ht="15.6" customHeight="1">
+      <c r="A6" s="42" t="inlineStr">
+        <is>
+          <t>9:00 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="4" t="n"/>
+    </row>
+    <row r="7" ht="15.6" customHeight="1">
+      <c r="A7" s="43" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A8" s="39" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="7" t="n"/>
+    </row>
+    <row r="9" ht="15.6" customHeight="1">
+      <c r="A9" s="44" t="inlineStr">
+        <is>
+          <t>10:00 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="8" t="n"/>
+      <c r="F9" s="9" t="n"/>
+    </row>
+    <row r="10" ht="15.6" customHeight="1">
+      <c r="A10" s="43" t="n"/>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>ETnEC Lab</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>MD-2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>IFP LAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A11" s="39" t="n"/>
+      <c r="B11" s="11" t="n"/>
+      <c r="C11" s="11" t="n"/>
+      <c r="D11" s="11" t="n"/>
+      <c r="E11" s="11" t="n"/>
+      <c r="F11" s="12" t="n"/>
+    </row>
+    <row r="12" ht="15.6" customHeight="1">
+      <c r="A12" s="42" t="inlineStr">
+        <is>
+          <t>11:00 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="4" t="n"/>
+    </row>
+    <row r="13" ht="15.6" customHeight="1">
+      <c r="A13" s="43" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>ETnEC Lab</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>MD-2</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>IFP LAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A14" s="39" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
+      <c r="F14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="44" t="inlineStr">
+        <is>
+          <t>12:00 PM - 1:00 PM</t>
+        </is>
+      </c>
+      <c r="B15" s="45" t="inlineStr">
+        <is>
+          <t>Lunch Break</t>
+        </is>
+      </c>
+      <c r="C15" s="46" t="n"/>
+      <c r="D15" s="46" t="n"/>
+      <c r="E15" s="46" t="n"/>
+      <c r="F15" s="47" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="43" t="n"/>
+      <c r="B16" s="48" t="n"/>
+      <c r="F16" s="49" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" thickBot="1">
+      <c r="A17" s="39" t="n"/>
+      <c r="B17" s="50" t="n"/>
+      <c r="C17" s="51" t="n"/>
+      <c r="D17" s="51" t="n"/>
+      <c r="E17" s="51" t="n"/>
+      <c r="F17" s="52" t="n"/>
+    </row>
+    <row r="18" ht="15.6" customHeight="1">
+      <c r="A18" s="42" t="inlineStr">
+        <is>
+          <t>1:00 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="4" t="n"/>
+    </row>
+    <row r="19" ht="15.6" customHeight="1">
+      <c r="A19" s="43" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>MD-2</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>MD-2</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A20" s="39" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="7" t="n"/>
+    </row>
+    <row r="21" ht="15.6" customHeight="1">
+      <c r="A21" s="44" t="inlineStr">
+        <is>
+          <t>2:00 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="n"/>
+      <c r="C21" s="8" t="n"/>
+      <c r="D21" s="8" t="n"/>
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="9" t="n"/>
+    </row>
+    <row r="22" ht="15.6" customHeight="1">
+      <c r="A22" s="43" t="n"/>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="F22" s="10" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A23" s="39" t="n"/>
+      <c r="B23" s="11" t="n"/>
+      <c r="C23" s="11" t="n"/>
+      <c r="D23" s="11" t="n"/>
+      <c r="E23" s="11" t="n"/>
+      <c r="F23" s="12" t="n"/>
+    </row>
+    <row r="24" ht="15.6" customHeight="1">
+      <c r="A24" s="42" t="inlineStr">
+        <is>
+          <t>3:00 PM - 4:00 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="3" t="n"/>
+      <c r="F24" s="4" t="n"/>
+    </row>
+    <row r="25" ht="15.6" customHeight="1">
+      <c r="A25" s="43" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="5" t="n"/>
+    </row>
+    <row r="26" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A26" s="39" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="7" t="n"/>
+    </row>
+    <row r="27" ht="15.6" customHeight="1">
+      <c r="A27" s="44" t="inlineStr">
+        <is>
+          <t>4:00 PM - 5:00 PM</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="n"/>
+      <c r="C27" s="8" t="n"/>
+      <c r="D27" s="8" t="n"/>
+      <c r="E27" s="8" t="n"/>
+      <c r="F27" s="9" t="n"/>
+    </row>
+    <row r="28" ht="15.6" customHeight="1">
+      <c r="A28" s="43" t="n"/>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A29" s="39" t="n"/>
+      <c r="B29" s="11" t="n"/>
+      <c r="C29" s="11" t="n"/>
+      <c r="D29" s="11" t="n"/>
+      <c r="E29" s="11" t="n"/>
+      <c r="F29" s="12" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="C1:D2"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="C1:D2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B15:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TimeTables/MECH_Sem_6.xlsx
+++ b/TimeTables/MECH_Sem_6.xlsx
@@ -1,170 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prerna Tulsiani\COEP\Sem5\AI\Final_Project\AI-Project\TimeTables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEBB090-B433-4A64-8D3A-C2B1788A44E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
-  <si>
-    <t>TIMETABLE GENERATOR</t>
-  </si>
-  <si>
-    <t>DAY / TIME</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>9:00 AM - 10:00 AM</t>
-  </si>
-  <si>
-    <t>10:00 AM - 11:00 AM</t>
-  </si>
-  <si>
-    <t>ETnEC Lab</t>
-  </si>
-  <si>
-    <t>IF</t>
-  </si>
-  <si>
-    <t>MD-2</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>IFP LAB</t>
-  </si>
-  <si>
-    <t>11:00 AM - 12:00 PM</t>
-  </si>
-  <si>
-    <t>12:00 PM - 1:00 PM</t>
-  </si>
-  <si>
-    <t>Lunch Break</t>
-  </si>
-  <si>
-    <t>1:00 PM - 2:00 PM</t>
-  </si>
-  <si>
-    <t>ICE</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>2:00 PM - 3:00 PM</t>
-  </si>
-  <si>
-    <t>3:00 PM - 4:00 PM</t>
-  </si>
-  <si>
-    <t>4:00 PM - 5:00 PM</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="28"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="16"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="20"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.09997863704336681"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -184,7 +124,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -200,7 +140,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -210,6 +150,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -268,6 +221,21 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -340,7 +308,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -355,22 +323,16 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -388,91 +350,194 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -738,311 +803,573 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col width="21.109375" customWidth="1" style="34" min="1" max="1"/>
+    <col width="31.5546875" customWidth="1" style="34" min="2" max="2"/>
+    <col width="34" customWidth="1" style="34" min="3" max="3"/>
+    <col width="32" customWidth="1" style="34" min="4" max="4"/>
+    <col width="37.109375" customWidth="1" style="34" min="5" max="5"/>
+    <col width="31.6640625" customWidth="1" style="34" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="21"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="21"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
+    <row r="1">
+      <c r="C1" s="20" t="inlineStr">
+        <is>
+          <t>TIMETABLE GENERATOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="31.8" customHeight="1" s="34"/>
+    <row r="3" ht="15" customHeight="1" s="34" thickBot="1"/>
+    <row r="4" ht="23.4" customHeight="1" s="34">
+      <c r="A4" s="39" t="inlineStr">
+        <is>
+          <t>DAY / TIME</t>
+        </is>
+      </c>
+      <c r="B4" s="40" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C4" s="40" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D4" s="40" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="E4" s="40" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="F4" s="41" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="14.4" customHeight="1" s="34" thickBot="1">
+      <c r="A5" s="42" t="n"/>
+      <c r="B5" s="43" t="n"/>
+      <c r="C5" s="43" t="n"/>
+      <c r="D5" s="43" t="n"/>
+      <c r="E5" s="43" t="n"/>
+      <c r="F5" s="44" t="n"/>
+    </row>
+    <row r="6" ht="15.6" customHeight="1" s="34">
+      <c r="A6" s="45" t="inlineStr">
+        <is>
+          <t>9:00 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="4" t="n"/>
+    </row>
+    <row r="7" ht="15.6" customHeight="1" s="34">
+      <c r="A7" s="46" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="5" t="n"/>
+    </row>
+    <row r="8" ht="16.2" customHeight="1" s="34" thickBot="1">
+      <c r="A8" s="42" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="7" t="n"/>
+    </row>
+    <row r="9" ht="15.6" customHeight="1" s="34">
+      <c r="A9" s="47" t="inlineStr">
+        <is>
+          <t>10:00 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="8" t="n"/>
+      <c r="F9" s="9" t="n"/>
+    </row>
+    <row r="10" ht="15.6" customHeight="1" s="34">
+      <c r="A10" s="46" t="n"/>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Mini Proj</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>MD-2 Lab</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>ETnEC Lab</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>IFP LAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="16.2" customHeight="1" s="34" thickBot="1">
+      <c r="A11" s="42" t="n"/>
+      <c r="B11" s="11" t="n"/>
+      <c r="C11" s="11" t="n"/>
+      <c r="D11" s="11" t="n"/>
+      <c r="E11" s="11" t="n"/>
+      <c r="F11" s="12" t="n"/>
+    </row>
+    <row r="12" ht="15.6" customHeight="1" s="34">
+      <c r="A12" s="45" t="inlineStr">
+        <is>
+          <t>11:00 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="4" t="n"/>
+    </row>
+    <row r="13" ht="15.6" customHeight="1" s="34">
+      <c r="A13" s="46" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Mini Proj</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>MD-2 Lab</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>ETnEC Lab</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>IFP LAB</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="16.2" customHeight="1" s="34" thickBot="1">
+      <c r="A14" s="42" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
+      <c r="F14" s="7" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="34" thickBot="1">
+      <c r="A15" s="47" t="inlineStr">
+        <is>
+          <t>12:00 PM - 1:00 PM</t>
+        </is>
+      </c>
+      <c r="B15" s="30" t="inlineStr">
+        <is>
+          <t>Lunch Break</t>
+        </is>
+      </c>
+      <c r="C15" s="31" t="n"/>
+      <c r="D15" s="31" t="n"/>
+      <c r="E15" s="31" t="n"/>
+      <c r="F15" s="32" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="46" t="n"/>
+      <c r="B16" s="33" t="n"/>
+      <c r="F16" s="35" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="34" thickBot="1">
+      <c r="A17" s="42" t="n"/>
+      <c r="B17" s="36" t="n"/>
+      <c r="C17" s="37" t="n"/>
+      <c r="D17" s="37" t="n"/>
+      <c r="E17" s="37" t="n"/>
+      <c r="F17" s="38" t="n"/>
+    </row>
+    <row r="18" ht="15.6" customHeight="1" s="34">
+      <c r="A18" s="45" t="inlineStr">
+        <is>
+          <t>1:00 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="4" t="n"/>
+    </row>
+    <row r="19" ht="15.6" customHeight="1" s="34">
+      <c r="A19" s="46" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>MD-2</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="16.2" customHeight="1" s="34" thickBot="1">
+      <c r="A20" s="42" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="7" t="n"/>
+    </row>
+    <row r="21" ht="15.6" customHeight="1" s="34">
+      <c r="A21" s="47" t="inlineStr">
+        <is>
+          <t>2:00 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="n"/>
+      <c r="C21" s="8" t="n"/>
+      <c r="D21" s="8" t="n"/>
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="9" t="n"/>
+    </row>
+    <row r="22" ht="15.6" customHeight="1" s="34">
+      <c r="A22" s="46" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>MD-2</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
+      <c r="F22" s="10" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="16.2" customHeight="1" s="34" thickBot="1">
+      <c r="A23" s="42" t="n"/>
+      <c r="B23" s="11" t="n"/>
+      <c r="C23" s="11" t="n"/>
+      <c r="D23" s="11" t="n"/>
+      <c r="E23" s="11" t="n"/>
+      <c r="F23" s="12" t="n"/>
+    </row>
+    <row r="24" ht="15.6" customHeight="1" s="34">
+      <c r="A24" s="45" t="inlineStr">
+        <is>
+          <t>3:00 PM - 4:00 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="3" t="n"/>
+      <c r="F24" s="4" t="n"/>
+    </row>
+    <row r="25" ht="15.6" customHeight="1" s="34">
+      <c r="A25" s="46" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MD-2</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="16.2" customHeight="1" s="34" thickBot="1">
+      <c r="A26" s="42" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="7" t="n"/>
+    </row>
+    <row r="27" ht="15.6" customHeight="1" s="34">
+      <c r="A27" s="47" t="inlineStr">
+        <is>
+          <t>4:00 PM - 5:00 PM</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="n"/>
+      <c r="C27" s="8" t="n"/>
+      <c r="D27" s="8" t="n"/>
+      <c r="E27" s="8" t="n"/>
+      <c r="F27" s="9" t="n"/>
+    </row>
+    <row r="28" ht="15.6" customHeight="1" s="34">
+      <c r="A28" s="46" t="n"/>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="16.2" customHeight="1" s="34" thickBot="1">
+      <c r="A29" s="42" t="n"/>
+      <c r="B29" s="11" t="n"/>
+      <c r="C29" s="11" t="n"/>
+      <c r="D29" s="11" t="n"/>
+      <c r="E29" s="11" t="n"/>
+      <c r="F29" s="12" t="n"/>
+    </row>
+    <row r="32" ht="27.6" customHeight="1" s="34">
+      <c r="B32" s="13" t="inlineStr">
+        <is>
+          <t>COURSE - ID</t>
+        </is>
+      </c>
+      <c r="C32" s="13" t="inlineStr">
+        <is>
+          <t>COURSE - NAME</t>
+        </is>
+      </c>
+      <c r="D32" s="13" t="inlineStr">
+        <is>
+          <t>COURSE - INSTRUCTOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="19.2" customHeight="1" s="34">
+      <c r="B33" s="14" t="inlineStr">
+        <is>
+          <t>IFP LAB</t>
+        </is>
+      </c>
+      <c r="C33" s="14" t="inlineStr">
+        <is>
+          <t>Industrial Fluid Power Lab</t>
+        </is>
+      </c>
+      <c r="D33" s="14" t="inlineStr">
+        <is>
+          <t>Fakir</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="18.6" customHeight="1" s="34">
+      <c r="B34" s="15" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="C34" s="15" t="inlineStr">
+        <is>
+          <t>Energy Conversion</t>
+        </is>
+      </c>
+      <c r="D34" s="15" t="inlineStr">
+        <is>
+          <t>Ankit</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="21.6" customHeight="1" s="34">
+      <c r="B35" s="14" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
+      <c r="C35" s="14" t="inlineStr">
+        <is>
+          <t>IC Engines</t>
+        </is>
+      </c>
+      <c r="D35" s="14" t="inlineStr">
+        <is>
+          <t>Gautam</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="17.4" customHeight="1" s="34">
+      <c r="B36" s="15" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="C36" s="15" t="inlineStr">
+        <is>
+          <t>Entrepreneurship Development</t>
+        </is>
+      </c>
+      <c r="D36" s="15" t="inlineStr">
+        <is>
+          <t>Arthik</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="19.8" customHeight="1" s="34">
+      <c r="B37" s="14" t="inlineStr">
+        <is>
+          <t>MD-2</t>
+        </is>
+      </c>
+      <c r="C37" s="14" t="inlineStr">
+        <is>
+          <t>Machine Design - 2</t>
+        </is>
+      </c>
+      <c r="D37" s="14" t="inlineStr">
+        <is>
+          <t>Sarwesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="19.2" customHeight="1" s="34">
+      <c r="B38" s="15" t="inlineStr">
+        <is>
+          <t>ETnEC Lab</t>
+        </is>
+      </c>
+      <c r="C38" s="15" t="inlineStr">
+        <is>
+          <t>Engineering Thermodynamics and Energy Conversion Lab</t>
+        </is>
+      </c>
+      <c r="D38" s="15" t="inlineStr">
+        <is>
+          <t>Sukanya</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="18" customHeight="1" s="34">
+      <c r="B39" s="14" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
+      <c r="C39" s="14" t="inlineStr">
+        <is>
+          <t>Industry Floated Course</t>
+        </is>
+      </c>
+      <c r="D39" s="14" t="inlineStr">
+        <is>
+          <t>Lalit</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="19.2" customHeight="1" s="34">
+      <c r="B40" s="15" t="inlineStr">
+        <is>
+          <t>MD-2 Lab</t>
+        </is>
+      </c>
+      <c r="C40" s="15" t="inlineStr">
+        <is>
+          <t>Machine Design - 2 Lab</t>
+        </is>
+      </c>
+      <c r="D40" s="15" t="inlineStr">
+        <is>
+          <t>Sankrant</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="19.8" customHeight="1" s="34">
+      <c r="B41" s="14" t="inlineStr">
+        <is>
+          <t>Mini Proj</t>
+        </is>
+      </c>
+      <c r="C41" s="14" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="D41" s="14" t="inlineStr">
+        <is>
+          <t>Fakir</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="19.8" customHeight="1" s="34">
+      <c r="B42" s="15" t="n"/>
+      <c r="C42" s="15" t="n"/>
+      <c r="D42" s="15" t="n"/>
+    </row>
+    <row r="43" ht="24" customHeight="1" s="34">
+      <c r="B43" s="14" t="n"/>
+      <c r="C43" s="14" t="n"/>
+      <c r="D43" s="14" t="n"/>
+    </row>
+    <row r="44" ht="18.6" customHeight="1" s="34">
+      <c r="B44" s="15" t="n"/>
+      <c r="C44" s="15" t="n"/>
+      <c r="D44" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/TimeTables/MECH_Sem_6.xlsx
+++ b/TimeTables/MECH_Sem_6.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -922,7 +922,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>IF</t>
+          <t>IF Lab</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>IF</t>
+          <t>IF Lab</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
@@ -1308,7 +1308,7 @@
     <row r="39" ht="18" customHeight="1" s="34">
       <c r="B39" s="14" t="inlineStr">
         <is>
-          <t>IF</t>
+          <t>IF Lab</t>
         </is>
       </c>
       <c r="C39" s="14" t="inlineStr">
